--- a/XC4500.VS.XC4210.xlsx
+++ b/XC4500.VS.XC4210.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9360" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
   <si>
     <t>CEVA_FFT_LIB_FFT_128</t>
   </si>
@@ -102,6 +103,61 @@
   <si>
     <t>XC4210函数
 (非CEVA库，联芯的实现)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C代码运算（正常一段代码带循环控制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~几乎相当</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1145--&gt;41 即变为3.6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样一段C代码：
+由常规复数乘加运算
+写成vec-C矢量并行运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">cycles@XC4210
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[实测数据]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同样一段C代码：
+由常规复数乘加运算
+写成vec-C矢量并行运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1145--&gt;41 即变为3.6%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +165,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,8 +190,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +213,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -172,32 +249,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -207,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,17 +271,35 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -254,16 +323,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -285,8 +354,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="6591300" cy="4312920"/>
+          <a:off x="723900" y="586740"/>
+          <a:ext cx="7802880" cy="5273040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,30 +634,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:I4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" hidden="1" customWidth="1"/>
     <col min="5" max="6" width="28.77734375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -598,7 +667,7 @@
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -609,7 +678,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -630,13 +699,13 @@
       <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="6">
         <f>G2/C2</f>
         <v>15.603559870550162</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,13 +724,13 @@
       <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="6">
         <f>G3/C3</f>
         <v>30.181533646322379</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -687,9 +756,40 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <f>G4/C4</f>
         <v>3.2422192151556155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1768</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1672</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -710,7 +810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -718,4 +820,146 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>103</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1">
+        <v>183</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="6">
+        <f>G2/C2</f>
+        <v>1.7766990291262137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>739/64</f>
+        <v>11.546875</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <f>47920/2/5/128</f>
+        <v>37.4375</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="6">
+        <f>G3/C3</f>
+        <v>3.2422192151556155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1768</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1">
+        <v>1672</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G1" r:id="rId1"/>
+    <hyperlink ref="C1" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>